--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="A4:L12"/>
+      <selection activeCell="A4" sqref="A4:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>

--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,120 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>BoolPropertyType</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Stunable</t>
+  </si>
+  <si>
+    <t>能不能被眩晕</t>
+  </si>
+  <si>
+    <t>Moveable</t>
+  </si>
+  <si>
+    <t>能不能移动</t>
+  </si>
+  <si>
+    <t>Skillable</t>
+  </si>
+  <si>
+    <t>能不能放技能</t>
+  </si>
+  <si>
+    <t>Hitbackable</t>
+  </si>
+  <si>
+    <t>能不能受击</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>能不能显示</t>
+  </si>
+  <si>
+    <t>Blockable</t>
+  </si>
+  <si>
+    <t>能不能被被碰撞</t>
+  </si>
+  <si>
+    <t>Damageable</t>
+  </si>
+  <si>
+    <t>能不能被伤害</t>
+  </si>
+  <si>
+    <t>Targetable</t>
+  </si>
+  <si>
+    <t>能不能主动碰撞</t>
+  </si>
+  <si>
+    <t>Healable</t>
+  </si>
+  <si>
+    <t>能不能回血</t>
+  </si>
+  <si>
+    <t>Dieable</t>
+  </si>
+  <si>
+    <t>能不能死亡</t>
+  </si>
+  <si>
+    <t>IsAlive</t>
+  </si>
+  <si>
+    <t>是否活着</t>
+  </si>
+  <si>
+    <t>IsStuning</t>
+  </si>
+  <si>
+    <t>是否眩晕</t>
+  </si>
+  <si>
+    <t>ValuePropertyType</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>治疗</t>
   </si>
 </sst>
 </file>
@@ -1046,13 +1160,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1151,6 +1265,216 @@
       </c>
       <c r="L3" s="1"/>
     </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="8:10">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="8:10">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10">
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="8:10">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10">
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10">
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25800" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>治疗</t>
+  </si>
+  <si>
+    <t>CollisionType</t>
+  </si>
+  <si>
+    <t>Collider2D</t>
+  </si>
+  <si>
+    <t>Raycast2D</t>
+  </si>
+  <si>
+    <t>BoxCollider</t>
+  </si>
+  <si>
+    <t>Raycast</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1475,6 +1490,35 @@
         <v>56</v>
       </c>
     </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>Raycast</t>
+  </si>
+  <si>
+    <t>StackType</t>
+  </si>
+  <si>
+    <t>AddLevel</t>
+  </si>
+  <si>
+    <t>增加层数</t>
+  </si>
+  <si>
+    <t>AddSubBuff</t>
+  </si>
+  <si>
+    <t>增加子buff</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1519,6 +1534,31 @@
         <v>61</v>
       </c>
     </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="17655"/>
+    <workbookView windowWidth="26520" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -228,6 +228,114 @@
   </si>
   <si>
     <t>增加子buff</t>
+  </si>
+  <si>
+    <t>QualityType</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>铂金</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <t>ItemSmallType</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
+    <t>LeftWeapon</t>
+  </si>
+  <si>
+    <t>左手武器</t>
+  </si>
+  <si>
+    <t>RightWeapon</t>
+  </si>
+  <si>
+    <t>右手武器</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>腿</t>
   </si>
 </sst>
 </file>
@@ -858,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +978,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1190,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B31" sqref="B31:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1559,6 +1670,178 @@
         <v>66</v>
       </c>
     </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9">
+      <c r="H32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9">
+      <c r="H35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9">
+      <c r="H37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9">
+      <c r="H39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9">
+      <c r="H41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9">
+      <c r="H43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9">
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9">
+      <c r="H45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9">
+      <c r="H46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9">
+      <c r="H47" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaboom\Downloads\Lcc-master\Lcc-master\DataTables\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD3F160-D887-455E-AA90-7BE1A75FD85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26520" windowHeight="17055"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>##var</t>
   </si>
@@ -336,19 +342,49 @@
   </si>
   <si>
     <t>腿</t>
+  </si>
+  <si>
+    <t>FxLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FxLevel0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FxLevel1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FxLevel2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FxLevelMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效等级0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效等级1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效等级2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效等级最大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,151 +393,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,192 +417,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -718,251 +445,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -974,70 +459,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1295,32 +736,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:I47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,15 +783,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,14 +817,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1406,7 +847,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="8:10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="8:10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="8:10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="8:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="8:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
         <v>29</v>
       </c>
@@ -1478,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="8:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="8:10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="8:10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>35</v>
       </c>
@@ -1511,7 +952,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="8:10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
         <v>37</v>
       </c>
@@ -1522,7 +963,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="8:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
         <v>39</v>
       </c>
@@ -1533,7 +974,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="8:10">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
         <v>41</v>
       </c>
@@ -1544,7 +985,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="16" spans="8:10">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
         <v>43</v>
       </c>
@@ -1555,7 +996,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -1569,22 +1010,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
         <v>49</v>
       </c>
@@ -1592,7 +1033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="8:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>51</v>
       </c>
@@ -1600,7 +1041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="8:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>53</v>
       </c>
@@ -1608,7 +1049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="8:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>55</v>
       </c>
@@ -1616,7 +1057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>57</v>
       </c>
@@ -1630,22 +1071,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>62</v>
       </c>
@@ -1662,7 +1103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="8:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H30" t="s">
         <v>65</v>
       </c>
@@ -1670,8 +1111,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="b">
@@ -1680,63 +1121,63 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="4" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="4" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="8:9">
-      <c r="H35" s="4" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="4" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="8:9">
-      <c r="H37" s="4" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>82</v>
       </c>
       <c r="C38" t="b">
@@ -1745,23 +1186,23 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="8:9">
-      <c r="H39" s="4" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
         <v>85</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
       <c r="C40" t="b">
@@ -1770,22 +1211,22 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="8:9">
-      <c r="H41" s="4" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
         <v>88</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>90</v>
       </c>
@@ -1802,7 +1243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="8:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>93</v>
       </c>
@@ -1810,7 +1251,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="8:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
         <v>95</v>
       </c>
@@ -1818,7 +1259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="8:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
         <v>97</v>
       </c>
@@ -1826,7 +1267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="8:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>99</v>
       </c>
@@ -1834,20 +1275,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="8:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
         <v>101</v>
       </c>
       <c r="I47" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>